--- a/Docs/Player_vs_Player.xlsx
+++ b/Docs/Player_vs_Player.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Upwork\ESPN CricInfo Scrape\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFE5999-44A6-466E-9868-A9B7EA00DA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F62F525-454E-412A-88DD-1EEE04F08B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>https://www.espncricinfo.com/cricketers/ibrahim-zadran-26421</t>
   </si>
   <si>
     <t>https://www.espncricinfo.com/cricketers/ibrahim-zadran-288284</t>
+  </si>
+  <si>
+    <t>PLAYER1 URL</t>
+  </si>
+  <si>
+    <t>PLAYER2 URL</t>
+  </si>
+  <si>
+    <t>MATCH TYPE</t>
+  </si>
+  <si>
+    <t>INNINGS</t>
+  </si>
+  <si>
+    <t>GROUND ID</t>
   </si>
 </sst>
 </file>
@@ -78,7 +93,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -89,6 +104,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -394,42 +410,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2">
-        <v>0</v>
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{FB7420BC-B5FE-4A40-9F87-33A48FE3D7D0}"/>
-    <hyperlink ref="B1" r:id="rId2" xr:uid="{5145263A-29D3-46CB-9114-7CD0B6F17136}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7E7A7522-381B-4E52-A544-7A0DF4BA79CE}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{489C6F64-CB01-4EF7-B53F-E7FE8C666E60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
